--- a/content/definitions.xlsx
+++ b/content/definitions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Word</t>
   </si>
@@ -95,6 +95,75 @@
     <t>"Using mathematical models to make general claims from particular data."</t>
   </si>
   <si>
+    <t>Random Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“A variable whose outcome is uncertain.” Formally, a rand is a function. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>&lt;a href = "</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="12"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>https://cbpbu.ac.in/userfiles/file/2020/STUDY_MAT/ECO/2.pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>"&gt;Wooldridge, Introductory Econometrics</t>
+    </r>
+  </si>
+  <si>
+    <t>Model (scientific)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>A simplified representation of a phenomenon. The Stanford Encyclopedia offers &lt;a href ="</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="12"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>https://plato.stanford.edu/entries/models-science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>/"&gt;a long discussion on models in science&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Conditional distribution</t>
+  </si>
+  <si>
+    <t>“The distribution of one variable given the value of another variable”</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -129,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -161,6 +230,18 @@
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <u val="single"/>
@@ -208,22 +289,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
@@ -258,7 +339,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -267,7 +348,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -350,14 +431,14 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -421,6 +502,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff467886"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffa5a5a5"/>
     </indexedColors>
   </colors>
@@ -1519,86 +1601,102 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>13</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="A6" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="4">
+        <v>8</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
@@ -1705,6 +1803,9 @@
     <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display="&lt;a href = &quot;https://avehtari.github.io/ROS-Examples/&quot;&gt;Regression and Other Stories&lt;/a&gt;"/>
     <hyperlink ref="C3" r:id="rId2" location="" tooltip="" display="&lt;a href=&quot;https://theeffectbook.net/&quot;&gt;The Effect&lt;/a&gt;"/>
     <hyperlink ref="C4" r:id="rId3" location="" tooltip="" display="&lt;a href = &quot;https://avehtari.github.io/ROS-Examples/&quot;&gt;Regression and Other Stories&lt;/a&gt;"/>
+    <hyperlink ref="C5" r:id="rId4" location="" tooltip="" display="https://cbpbu.ac.in/userfiles/file/2020/STUDY_MAT/ECO/2.pdf"/>
+    <hyperlink ref="B6" r:id="rId5" location="" tooltip="" display="https://plato.stanford.edu/entries/models-science"/>
+    <hyperlink ref="C7" r:id="rId6" location="" tooltip="" display="&lt;a href=&quot;https://theeffectbook.net/&quot;&gt;The Effect&lt;/a&gt;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1731,7 +1832,7 @@
     <row r="1" ht="16.35" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" t="s" s="10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
